--- a/app/student_ledger.xlsx
+++ b/app/student_ledger.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdherr/Personal_Projects/student_grouper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdherr/Personal_Projects/student_grouper/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5706B2-15AF-204C-8288-F0020FB5B2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87C5B1C-4A6E-8249-BB61-1093CA98E879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="27520" windowHeight="16940" activeTab="5" xr2:uid="{45A543C8-97C0-F545-8D7A-C621361B6700}"/>
+    <workbookView xWindow="1000" yWindow="500" windowWidth="27520" windowHeight="16940" activeTab="5" xr2:uid="{45A543C8-97C0-F545-8D7A-C621361B6700}"/>
   </bookViews>
   <sheets>
     <sheet name="period_2" sheetId="2" r:id="rId1"/>
@@ -192,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -210,6 +210,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,7 +764,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -979,25 +983,31 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="2"/>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="7"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="2"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="7"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B30" s="2"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="2"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="7"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="2"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/student_ledger.xlsx
+++ b/app/student_ledger.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdherr/Personal_Projects/student_grouper/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87C5B1C-4A6E-8249-BB61-1093CA98E879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4003B815-1B22-4D4B-A1AF-6B6F808BC3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="500" windowWidth="27520" windowHeight="16940" activeTab="5" xr2:uid="{45A543C8-97C0-F545-8D7A-C621361B6700}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>a</t>
   </si>
@@ -89,9 +89,6 @@
     <t>y</t>
   </si>
   <si>
-    <t>present</t>
-  </si>
-  <si>
     <t>o</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -151,18 +151,9 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -177,40 +168,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -528,69 +498,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37A101F-355A-D44F-B482-189D6DD7F4C6}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B13"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -599,81 +554,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5907D957-C705-9149-A9EE-981D781E50D4}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B21"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -682,24 +619,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295E76C3-0322-404A-B098-8D00CDA91E3A}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H47"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -709,49 +642,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2076E90E-EBBC-8444-8BE3-85AC45FF3A51}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9537EF4-A6E7-E649-88C9-58EF92B3F542}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B46"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -759,255 +663,194 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9537EF4-A6E7-E649-88C9-58EF92B3F542}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC11CF4C-38A2-0242-B07B-547985BF567C}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="7"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/student_ledger.xlsx
+++ b/app/student_ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdherr/Personal_Projects/student_grouper/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4003B815-1B22-4D4B-A1AF-6B6F808BC3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E8B416-B73B-4843-8F53-2024C4F49A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="500" windowWidth="27520" windowHeight="16940" activeTab="5" xr2:uid="{45A543C8-97C0-F545-8D7A-C621361B6700}"/>
+    <workbookView xWindow="14900" yWindow="500" windowWidth="13900" windowHeight="17500" activeTab="4" xr2:uid="{45A543C8-97C0-F545-8D7A-C621361B6700}"/>
   </bookViews>
   <sheets>
     <sheet name="period_2" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="134">
   <si>
     <t>a</t>
   </si>
@@ -120,13 +120,334 @@
   </si>
   <si>
     <t>z</t>
+  </si>
+  <si>
+    <t>Jen Beattie</t>
+  </si>
+  <si>
+    <t>Lauren Charpentier</t>
+  </si>
+  <si>
+    <t>David Decolli</t>
+  </si>
+  <si>
+    <t>Ryan DePalma</t>
+  </si>
+  <si>
+    <t>Mila Eberly</t>
+  </si>
+  <si>
+    <t>Caleigh Herr</t>
+  </si>
+  <si>
+    <t>Makenna Jernigan</t>
+  </si>
+  <si>
+    <t>Andy Keough</t>
+  </si>
+  <si>
+    <t>Natalie Krentz</t>
+  </si>
+  <si>
+    <t>Megan MacWade</t>
+  </si>
+  <si>
+    <t>Grace McKinley</t>
+  </si>
+  <si>
+    <t>Ashton Mehler</t>
+  </si>
+  <si>
+    <t>Kayla Minkon</t>
+  </si>
+  <si>
+    <t>Jacob Replogle</t>
+  </si>
+  <si>
+    <t>Kevin Robinson</t>
+  </si>
+  <si>
+    <t>Logan Rowley</t>
+  </si>
+  <si>
+    <t>Javier Schorle</t>
+  </si>
+  <si>
+    <t>Sam Sciarra</t>
+  </si>
+  <si>
+    <t>Nadia Shedid</t>
+  </si>
+  <si>
+    <t>Kate Shrift</t>
+  </si>
+  <si>
+    <t>Savannah Silvestre</t>
+  </si>
+  <si>
+    <t>Ryan Teti</t>
+  </si>
+  <si>
+    <t>Ainsley Tobin</t>
+  </si>
+  <si>
+    <t>Nick Torrillo</t>
+  </si>
+  <si>
+    <t>Kaitlyn Waligun</t>
+  </si>
+  <si>
+    <t>Tyler Waltrich</t>
+  </si>
+  <si>
+    <t>Ben Watson</t>
+  </si>
+  <si>
+    <t>Ethan Witkowski</t>
+  </si>
+  <si>
+    <t>Sierra Andrew</t>
+  </si>
+  <si>
+    <t>Jules Bacani</t>
+  </si>
+  <si>
+    <t>Olivia Beckman</t>
+  </si>
+  <si>
+    <t>Jeremy Brewer</t>
+  </si>
+  <si>
+    <t>Nicholas Carosi</t>
+  </si>
+  <si>
+    <t>Raeanna Cerminara</t>
+  </si>
+  <si>
+    <t>Grace Comiciotto</t>
+  </si>
+  <si>
+    <t>Sierra Demaula</t>
+  </si>
+  <si>
+    <t>Brenna Doering</t>
+  </si>
+  <si>
+    <t>Graeme Duffey</t>
+  </si>
+  <si>
+    <t>CJ Farrell</t>
+  </si>
+  <si>
+    <t>Meg Furlong</t>
+  </si>
+  <si>
+    <t>Gus Lindberger</t>
+  </si>
+  <si>
+    <t>Elaina MacQueen</t>
+  </si>
+  <si>
+    <t>Gianna Mallee</t>
+  </si>
+  <si>
+    <t>Madelyn Malone</t>
+  </si>
+  <si>
+    <t>Jack McMonagle</t>
+  </si>
+  <si>
+    <t>Matt Meyering</t>
+  </si>
+  <si>
+    <t>Emma Miley</t>
+  </si>
+  <si>
+    <t>Jane Nezvesny</t>
+  </si>
+  <si>
+    <t>Hannah Powell</t>
+  </si>
+  <si>
+    <t>Connor Ribble</t>
+  </si>
+  <si>
+    <t>Nick Romio</t>
+  </si>
+  <si>
+    <t>Lucio Sladen</t>
+  </si>
+  <si>
+    <t>Noelle Smith</t>
+  </si>
+  <si>
+    <t>Olivia Stengel</t>
+  </si>
+  <si>
+    <t>Brandon Sun</t>
+  </si>
+  <si>
+    <t>Ashley Tighe</t>
+  </si>
+  <si>
+    <t>Angelo Trader</t>
+  </si>
+  <si>
+    <t>Keira Bernstiel</t>
+  </si>
+  <si>
+    <t>Holly Borchardt</t>
+  </si>
+  <si>
+    <t>Wyatt Daring</t>
+  </si>
+  <si>
+    <t>Dylan Grandmont</t>
+  </si>
+  <si>
+    <t>Lucky Haney</t>
+  </si>
+  <si>
+    <t>Kasey Smith</t>
+  </si>
+  <si>
+    <t>Aniyah Bates</t>
+  </si>
+  <si>
+    <t>Josie Wendler</t>
+  </si>
+  <si>
+    <t>Mia Wirth</t>
+  </si>
+  <si>
+    <t>Dani Alleva</t>
+  </si>
+  <si>
+    <t>Peter Angel</t>
+  </si>
+  <si>
+    <t>Adam Brockett</t>
+  </si>
+  <si>
+    <t>Evan Butler</t>
+  </si>
+  <si>
+    <t>Ronan Cammisa</t>
+  </si>
+  <si>
+    <t>Mike Cobaugh</t>
+  </si>
+  <si>
+    <t>Chris Cowgill</t>
+  </si>
+  <si>
+    <t>Sean Donovan</t>
+  </si>
+  <si>
+    <t>Sebastian Gallo</t>
+  </si>
+  <si>
+    <t>Ryan Grant</t>
+  </si>
+  <si>
+    <t>Will Hoffman</t>
+  </si>
+  <si>
+    <t>Logan Keebler</t>
+  </si>
+  <si>
+    <t>Angela Lamina</t>
+  </si>
+  <si>
+    <t>Sydney Libby</t>
+  </si>
+  <si>
+    <t>Owen Low</t>
+  </si>
+  <si>
+    <t>Ian McMenamin</t>
+  </si>
+  <si>
+    <t>Anna Meixell</t>
+  </si>
+  <si>
+    <t>Nicole Mullin</t>
+  </si>
+  <si>
+    <t>Dax Nguyen</t>
+  </si>
+  <si>
+    <t>Luke Ott</t>
+  </si>
+  <si>
+    <t>Olivia Palubinski</t>
+  </si>
+  <si>
+    <t>Eve Ramsey</t>
+  </si>
+  <si>
+    <t>Justin Reyes</t>
+  </si>
+  <si>
+    <t>Nick Russo</t>
+  </si>
+  <si>
+    <t>Jenn Saunders</t>
+  </si>
+  <si>
+    <t>Matt Schafer</t>
+  </si>
+  <si>
+    <t>Matt Smith</t>
+  </si>
+  <si>
+    <t>Aine Sponholz</t>
+  </si>
+  <si>
+    <t>Ryan Stratton</t>
+  </si>
+  <si>
+    <t>Alex Turley</t>
+  </si>
+  <si>
+    <t>Lorenzo Baum</t>
+  </si>
+  <si>
+    <t>Mason Threet</t>
+  </si>
+  <si>
+    <t>Nick Germes</t>
+  </si>
+  <si>
+    <t>Sam Decastro</t>
+  </si>
+  <si>
+    <t>Yali Jimenez Cruz</t>
+  </si>
+  <si>
+    <t>Jen Card</t>
+  </si>
+  <si>
+    <t>Emma George</t>
+  </si>
+  <si>
+    <t>Cat Hein-Rodriguez</t>
+  </si>
+  <si>
+    <t>Nat Clark</t>
+  </si>
+  <si>
+    <t>Alex Ishkhanian</t>
+  </si>
+  <si>
+    <t>Liv Rutherford</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,6 +462,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -172,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -184,6 +511,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37A101F-355A-D44F-B482-189D6DD7F4C6}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,37 +843,144 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+      <c r="A2" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+      <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+      <c r="A6" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+      <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+      <c r="A8" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+      <c r="A9" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+      <c r="A10" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+      <c r="A11" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+      <c r="A12" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -554,10 +989,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5907D957-C705-9149-A9EE-981D781E50D4}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A2" sqref="A2:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -571,46 +1006,149 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+      <c r="A2" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+      <c r="A3" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+      <c r="A4" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+      <c r="A5" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+      <c r="A6" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+      <c r="A7" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+      <c r="A8" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+      <c r="A9" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+      <c r="A10" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+      <c r="A11" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+      <c r="A12" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+      <c r="A13" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
+      <c r="A14" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
+      <c r="A15" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -619,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295E76C3-0322-404A-B098-8D00CDA91E3A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,6 +1173,51 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -642,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2076E90E-EBBC-8444-8BE3-85AC45FF3A51}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -658,6 +1241,156 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -665,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9537EF4-A6E7-E649-88C9-58EF92B3F542}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -681,6 +1414,61 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -690,7 +1478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC11CF4C-38A2-0242-B07B-547985BF567C}">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>

--- a/app/student_ledger.xlsx
+++ b/app/student_ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aherr\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED24585F-78CF-49F5-98CD-2020BD65EB08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B56F68-AD1D-4611-9B46-C27EFBA34903}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="5390" activeTab="4" xr2:uid="{45A543C8-97C0-F545-8D7A-C621361B6700}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="5390" activeTab="3" xr2:uid="{45A543C8-97C0-F545-8D7A-C621361B6700}"/>
   </bookViews>
   <sheets>
     <sheet name="period_1" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="123">
   <si>
     <t>a</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Lorenzo Baum</t>
   </si>
   <si>
-    <t>Mason Threet</t>
-  </si>
-  <si>
     <t>Alyssa Aiello</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>Kyle Cohen</t>
   </si>
   <si>
-    <t>Michael Conley</t>
-  </si>
-  <si>
     <t>Suzy Cornish</t>
   </si>
   <si>
@@ -146,15 +140,6 @@
     <t>Avery Gehman</t>
   </si>
   <si>
-    <t>Olivia Grate</t>
-  </si>
-  <si>
-    <t>Gabriel Jimenez</t>
-  </si>
-  <si>
-    <t>Charles Komara</t>
-  </si>
-  <si>
     <t>Mia Kovalik</t>
   </si>
   <si>
@@ -179,18 +164,9 @@
     <t>Jackson Baker</t>
   </si>
   <si>
-    <t>John Brady</t>
-  </si>
-  <si>
     <t>Sydney Callender</t>
   </si>
   <si>
-    <t>Elizabeth Cherry</t>
-  </si>
-  <si>
-    <t>Madison Gilchrist</t>
-  </si>
-  <si>
     <t>Nathan Gomes</t>
   </si>
   <si>
@@ -200,15 +176,9 @@
     <t>Graham Heath</t>
   </si>
   <si>
-    <t>Samuel Koehler</t>
-  </si>
-  <si>
     <t>Max Krantz</t>
   </si>
   <si>
-    <t>Benjamin Mott</t>
-  </si>
-  <si>
     <t>Caroline Natter</t>
   </si>
   <si>
@@ -221,24 +191,15 @@
     <t>Ella Stein</t>
   </si>
   <si>
-    <t>Francesca Vitelli</t>
-  </si>
-  <si>
     <t>Brady Wills</t>
   </si>
   <si>
-    <t>Christopher Asfor</t>
-  </si>
-  <si>
     <t>Sophia Back</t>
   </si>
   <si>
     <t>Nyle Barrette-Garvin</t>
   </si>
   <si>
-    <t>Daniel Bucci</t>
-  </si>
-  <si>
     <t>Brandon Butcher</t>
   </si>
   <si>
@@ -263,21 +224,9 @@
     <t>Caitlin Hartey</t>
   </si>
   <si>
-    <t>Allison Kulp</t>
-  </si>
-  <si>
     <t>Colleen Lee</t>
   </si>
   <si>
-    <t>Maria Vitoria Moura</t>
-  </si>
-  <si>
-    <t>Magnolia Niarhos-Gauger</t>
-  </si>
-  <si>
-    <t>Nathaniel Oliver</t>
-  </si>
-  <si>
     <t>Trevor Peterman</t>
   </si>
   <si>
@@ -290,21 +239,9 @@
     <t>Mia Angelaccio</t>
   </si>
   <si>
-    <t>Gabrielle Barrette-Garvin</t>
-  </si>
-  <si>
-    <t>Robert Battisto</t>
-  </si>
-  <si>
-    <t>Kailey Baum</t>
-  </si>
-  <si>
     <t>Emilia Brown</t>
   </si>
   <si>
-    <t>Madison Cooper</t>
-  </si>
-  <si>
     <t>Marco Cordero-Limon</t>
   </si>
   <si>
@@ -314,30 +251,18 @@
     <t>Ava Magdycz</t>
   </si>
   <si>
-    <t>Elizabeth Martin</t>
-  </si>
-  <si>
     <t>Brandon McClay</t>
   </si>
   <si>
     <t>Gelila Mersha</t>
   </si>
   <si>
-    <t>Monte Mills</t>
-  </si>
-  <si>
-    <t>Addison O'Donnell</t>
-  </si>
-  <si>
     <t>Rosaleen Preston</t>
   </si>
   <si>
     <t>Ethan Saylor</t>
   </si>
   <si>
-    <t>Kenneth Schumann</t>
-  </si>
-  <si>
     <t>Olivia Smith</t>
   </si>
   <si>
@@ -353,9 +278,6 @@
     <t>Lucas Brown</t>
   </si>
   <si>
-    <t>Charles Dewane</t>
-  </si>
-  <si>
     <t>Ella Dittmar</t>
   </si>
   <si>
@@ -368,15 +290,9 @@
     <t>Makayla Lee</t>
   </si>
   <si>
-    <t>Michael Leith</t>
-  </si>
-  <si>
     <t>Megan Leonard</t>
   </si>
   <si>
-    <t>Lorena Lima</t>
-  </si>
-  <si>
     <t>Callie Martiello</t>
   </si>
   <si>
@@ -386,12 +302,6 @@
     <t>Haley Moyer</t>
   </si>
   <si>
-    <t>Jacqueline Negron</t>
-  </si>
-  <si>
-    <t>Peniel Jansen Padillo</t>
-  </si>
-  <si>
     <t>Asmaa Shedid</t>
   </si>
   <si>
@@ -408,6 +318,87 @@
   </si>
   <si>
     <t>Victoria Hall</t>
+  </si>
+  <si>
+    <t>Liv Grate</t>
+  </si>
+  <si>
+    <t>Mike Conley</t>
+  </si>
+  <si>
+    <t>Gabe Jimenez</t>
+  </si>
+  <si>
+    <t>JT Brady</t>
+  </si>
+  <si>
+    <t>Sam Koehler</t>
+  </si>
+  <si>
+    <t>Ben Mott</t>
+  </si>
+  <si>
+    <t>Frankie Vitelli</t>
+  </si>
+  <si>
+    <t>Chris Asfor</t>
+  </si>
+  <si>
+    <t>Danny Bucci</t>
+  </si>
+  <si>
+    <t>Allie Kulp</t>
+  </si>
+  <si>
+    <t>Vicky Moura</t>
+  </si>
+  <si>
+    <t>Maggie Niarhos</t>
+  </si>
+  <si>
+    <t>Nate Oliver</t>
+  </si>
+  <si>
+    <t>Gabby Barrette-Garvin</t>
+  </si>
+  <si>
+    <t>Bobby Battisto</t>
+  </si>
+  <si>
+    <t>Zuri O'Donnell</t>
+  </si>
+  <si>
+    <t>Kenny Schumann</t>
+  </si>
+  <si>
+    <t>Charlie Dewane</t>
+  </si>
+  <si>
+    <t>Mike Leith</t>
+  </si>
+  <si>
+    <t>Lallie Lima</t>
+  </si>
+  <si>
+    <t>Jackie Negron</t>
+  </si>
+  <si>
+    <t>Charlie Komara</t>
+  </si>
+  <si>
+    <t>Maddie Gilchrist</t>
+  </si>
+  <si>
+    <t>Lauro Rodriguez Morales</t>
+  </si>
+  <si>
+    <t>Peniel Padillo</t>
+  </si>
+  <si>
+    <t>Izzy Martin</t>
+  </si>
+  <si>
+    <t>Madi Cooper</t>
   </si>
 </sst>
 </file>
@@ -804,7 +795,7 @@
   <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -819,102 +810,102 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
@@ -951,7 +942,7 @@
   <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -966,93 +957,91 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="A19" s="5"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
@@ -1112,32 +1101,32 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
@@ -1147,72 +1136,72 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
@@ -1247,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2076E90E-EBBC-8444-8BE3-85AC45FF3A51}">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1265,108 +1254,104 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="A21" s="5"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="A22" s="5"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
@@ -1394,6 +1379,9 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1404,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9537EF4-A6E7-E649-88C9-58EF92B3F542}">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1420,97 +1408,97 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
